--- a/3_output/tablas/desc_table.xlsx
+++ b/3_output/tablas/desc_table.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">Pertenencia barrial</t>
   </si>
   <si>
-    <t xml:space="preserve">576</t>
+    <t xml:space="preserve">573</t>
   </si>
   <si>
     <t xml:space="preserve">3.5</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">Sociabilidad barrial</t>
   </si>
   <si>
-    <t xml:space="preserve">568</t>
+    <t xml:space="preserve">565</t>
   </si>
   <si>
     <t xml:space="preserve">3.4</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Reputación percibida</t>
   </si>
   <si>
-    <t xml:space="preserve">570</t>
+    <t xml:space="preserve">567</t>
   </si>
   <si>
     <t xml:space="preserve">3.1</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">Seguridad barrial</t>
   </si>
   <si>
-    <t xml:space="preserve">577</t>
+    <t xml:space="preserve">574</t>
   </si>
   <si>
     <t xml:space="preserve">Satisfacción residencial</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">Edad residente</t>
   </si>
   <si>
-    <t xml:space="preserve">604</t>
+    <t xml:space="preserve">601</t>
   </si>
   <si>
     <t xml:space="preserve">51</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">Nivel educacional</t>
   </si>
   <si>
-    <t xml:space="preserve">602</t>
+    <t xml:space="preserve">599</t>
   </si>
   <si>
     <t xml:space="preserve">5.6</t>
@@ -239,10 +239,10 @@
     <t xml:space="preserve">... D</t>
   </si>
   <si>
-    <t xml:space="preserve">269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45%</t>
+    <t xml:space="preserve">266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44%</t>
   </si>
   <si>
     <t xml:space="preserve">... E</t>
